--- a/finalData/Sustainabilityfinal.xlsx
+++ b/finalData/Sustainabilityfinal.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u720149\OneDrive - O-I\SummerInternProject2019\finalData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,13 +47,16 @@
     <t>keyPhrases</t>
   </si>
   <si>
+    <t>News</t>
+  </si>
+  <si>
     <t>Irrelevent</t>
   </si>
   <si>
-    <t>2019-06-27 14:30:18</t>
-  </si>
-  <si>
-    <t>Interesting plastic art at the #CPREconf. @CPRE #PlasticReuse https://t.co/c1kRZsgBty</t>
+    <t>2019-06-22 07:23:42</t>
+  </si>
+  <si>
+    <t>We are unstoppable!! #ceat #Bhandup employee #volunteers continue to work towards improving relationship with the https://t.co/1fDScnkF43</t>
   </si>
   <si>
     <t>plastic</t>
@@ -67,13 +65,10 @@
     <t>Sustainability</t>
   </si>
   <si>
-    <t>['Interesting plastic art', 'CPREconf', 'PlasticReuse']</t>
+    <t>['volunteers', 'ceat', 'Bhandup employee', 'relationship']</t>
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Lifestyle</t>
   </si>
   <si>
     <t>Cost</t>
@@ -100,8 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,14 +159,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -218,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,10 +237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,18 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,33 +487,39 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.94627511501312256</v>
+        <v>0.7872353792190552</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
@@ -542,87 +529,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>

--- a/finalData/Sustainabilityfinal.xlsx
+++ b/finalData/Sustainabilityfinal.xlsx
@@ -1,127 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Tweet</t>
-  </si>
-  <si>
-    <t>Favorites</t>
-  </si>
-  <si>
-    <t>Retweets</t>
-  </si>
-  <si>
-    <t>Sentiment</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Category1</t>
-  </si>
-  <si>
-    <t>Category2</t>
-  </si>
-  <si>
-    <t>Category3</t>
-  </si>
-  <si>
-    <t>keyPhrases</t>
-  </si>
-  <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>Irrelevent</t>
-  </si>
-  <si>
-    <t>2019-06-22 07:23:42</t>
-  </si>
-  <si>
-    <t>We are unstoppable!! #ceat #Bhandup employee #volunteers continue to work towards improving relationship with the https://t.co/1fDScnkF43</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>Sustainability</t>
-  </si>
-  <si>
-    <t>['volunteers', 'ceat', 'Bhandup employee', 'relationship']</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Aesthetic</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Convenience</t>
-  </si>
-  <si>
-    <t>Innovation</t>
-  </si>
-  <si>
-    <t>Advertisement</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,21 +68,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -446,166 +379,892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tweet</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Favorites</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Retweets</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Category1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Category2</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Category3</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>keyPhrases</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>News</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Irrelevent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-06-22 07:23:42</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>We are unstoppable!! #ceat #Bhandup employee #volunteers continue to work towards improving relationship with the https://t.co/1fDScnkF43</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7872353792190552</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['volunteers', 'ceat', 'Bhandup employee', 'relationship']</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-06-25 19:39:52</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RT @ChooseGlass: More new science on the impact of plastic pollution on our oceans. #ChooseGlass https://t.co/G1YX83UGol</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['ChooseGlass', 'new science', 'impact of plastic pollution', 'oceans', 'RT']</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-06-25 19:39:32</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>More new science on the impact of plastic pollution on our oceans. #ChooseGlass https://t.co/G1YX83UGol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['impact of plastic pollution', 'new science', 'oceans', 'ChooseGlass']</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-06-25 16:40:39</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>#Glass is pure and chemically inert, making it one of the safest packages for food &amp;amp; beverages. #ChooseGlass https://t.co/d1a0UKa0L8</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9397210478782654</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['food', 'amp', 'safest packages', 'beverages', 'ChooseGlass']</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-06-25 16:39:31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Love it. https://t.co/w3d541WqHe</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9948004484176636</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-06-25 15:57:28</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RT @ChooseGlass: Made from all-natural ingredients, #glass containers are impermeable and transparent -- a perfect fit for specialty food &amp;amp;</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E7" t="n">
+        <v>0.9124375581741333</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['glass containers', 'all-natural ingredients', 'perfect fit', 'specialty food', 'amp', 'ChooseGlass', 'RT']</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019-06-25 15:12:31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glass recycling expands in Omaha @rippleglass #Sustainability https://t.co/CVADtxokff</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['Omaha', 'rippleglass', 'Glass recycling', 'Sustainability']</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019-06-25 14:08:42</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RT @ChooseGlass: Made from all-natural ingredients, #glass containers are impermeable and transparent -- a perfect fit for specialty food &amp;amp;</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9124375581741333</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['glass containers', 'all-natural ingredients', 'perfect fit', 'specialty food', 'amp', 'ChooseGlass', 'RT']</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019-06-25 12:11:37</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RT @ChooseGlass: What's for lunch? How about these ready-to-go salads in #glass jars. #ChooseGlass #Sustainability https://t.co/tWEogvt3G5</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.7872353792190552</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="E10" t="n">
+        <v>0.9838312864303589</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['ChooseGlass', 'salads', 'glass jars', 'RT', 'lunch', 'Sustainability']</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019-06-25 09:56:35</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RT @ChooseGlass: Made from all-natural ingredients, #glass containers are impermeable and transparent -- a perfect fit for specialty food &amp;amp;</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9124375581741333</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['glass containers', 'all-natural ingredients', 'perfect fit', 'specialty food', 'amp', 'ChooseGlass', 'RT']</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2019-06-25 09:55:23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RT @ChooseGlass: What's for lunch? How about these ready-to-go salads in #glass jars. #ChooseGlass #Sustainability https://t.co/tWEogvt3G5</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9838312864303589</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['ChooseGlass', 'salads', 'glass jars', 'RT', 'lunch', 'Sustainability']</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019-06-25 08:46:35</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>In the mood for some Blush . Add a touch of blush with these quirky shaped #recycledglass #lamps and #vases \nCli https://t.co/Gt3cAfXKqc</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9036629199981689</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['touch of blush', 'lamps', 'recycledglass', 'vases', 'nCli', 'mood']</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2019-06-25 07:40:43</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RT @ChooseGlass: Made from all-natural ingredients, #glass containers are impermeable and transparent -- a perfect fit for specialty food &amp;amp;</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9124375581741333</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['glass containers', 'all-natural ingredients', 'perfect fit', 'specialty food', 'amp', 'ChooseGlass', 'RT']</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019-06-25 03:30:13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RT @ChooseGlass: What's for lunch? How about these ready-to-go salads in #glass jars. #ChooseGlass #Sustainability https://t.co/tWEogvt3G5</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9838312864303589</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['ChooseGlass', 'salads', 'glass jars', 'RT', 'lunch', 'Sustainability']</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2019-06-25 00:30:53</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RT @ChooseGlass: What's for lunch? How about these ready-to-go salads in #glass jars. #ChooseGlass #Sustainability https://t.co/tWEogvt3G5</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9838312864303589</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['ChooseGlass', 'salads', 'glass jars', 'RT', 'lunch', 'Sustainability']</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2019-06-24 21:16:15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Someone bring these to #KansasCity! https://t.co/qG6hpeod8e</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['KansasCity']</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aesthetic</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Convenience</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Innovation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/finalData/Sustainabilityfinal.xlsx
+++ b/finalData/Sustainabilityfinal.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21908"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_38BAA31171115758B27B838D3EAC50D5655BF2F7" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{50E158CD-E32A-4B3E-92EB-EADD33D96486}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_38BAA31171115758B27B838D3EAC50D5655BF2F7" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F72FE8DD-C0E2-4AD0-B326-487B1E249E76}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="137">
   <si>
     <t>Time</t>
   </si>
@@ -113,6 +113,9 @@
     <t>RT @alliedglassUK: We are united in celebrating @HavenDistillery new #recycled #bottle. @alliedglassUK #goldenticket winner! #chooseglass #</t>
   </si>
   <si>
+    <t>Advertisement</t>
+  </si>
+  <si>
     <t>['alliedglassUK', 'HavenDistillery new', 'bottle', 'goldenticket winner', 'RT', 'chooseglass']</t>
   </si>
   <si>
@@ -293,6 +296,9 @@
     <t>RT @ChooseGlass: #Glass is pure and chemically inert, making it one of the safest packages for food &amp;amp; beverages. #ChooseGlass #fancyfoodsho</t>
   </si>
   <si>
+    <t>Product</t>
+  </si>
+  <si>
     <t>['ChooseGlass', 'amp', 'safest packages', 'beverages', 'RT', 'fancyfoodsho']</t>
   </si>
   <si>
@@ -422,9 +428,6 @@
     <t>Aesthetic</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>Art</t>
   </si>
   <si>
@@ -432,9 +435,6 @@
   </si>
   <si>
     <t>Innovation</t>
-  </si>
-  <si>
-    <t>Advertisement</t>
   </si>
 </sst>
 </file>
@@ -846,13 +846,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F47"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="132.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="184.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -986,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1043,8 +1047,11 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1055,10 +1062,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1075,8 +1082,11 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1087,10 +1097,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1108,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1119,10 +1129,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1140,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1151,10 +1161,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1172,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1183,10 +1193,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -1204,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1215,10 +1225,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1236,21 +1246,21 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1268,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1279,10 +1289,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1291,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -1300,7 +1310,7 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1311,10 +1321,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1332,7 +1342,7 @@
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1343,10 +1353,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1355,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -1364,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1375,10 +1385,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1387,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -1396,7 +1406,7 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1407,10 +1417,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1428,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1439,10 +1449,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1460,7 +1470,7 @@
         <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1471,10 +1481,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1492,7 +1502,7 @@
         <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1503,10 +1513,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1515,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -1524,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1535,10 +1545,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1547,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -1556,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1567,10 +1577,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1588,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1599,10 +1609,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1620,7 +1630,7 @@
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1631,10 +1641,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1652,7 +1662,7 @@
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1663,10 +1673,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1684,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1695,10 +1705,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1716,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1727,10 +1737,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1747,8 +1757,11 @@
       <c r="G28" t="s">
         <v>15</v>
       </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1759,10 +1772,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1779,8 +1792,11 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1791,10 +1807,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1812,7 +1828,7 @@
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1823,10 +1839,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -1844,7 +1860,7 @@
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1855,10 +1871,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1875,8 +1891,11 @@
       <c r="G32" t="s">
         <v>15</v>
       </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1887,10 +1906,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1908,7 +1927,7 @@
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1919,10 +1938,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1939,8 +1958,11 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1951,10 +1973,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1972,7 +1994,7 @@
         <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1983,10 +2005,10 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2003,8 +2025,11 @@
       <c r="G36" t="s">
         <v>15</v>
       </c>
+      <c r="H36" t="s">
+        <v>90</v>
+      </c>
       <c r="J36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2015,10 +2040,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2036,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2047,10 +2072,10 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2067,8 +2092,11 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2079,10 +2107,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2100,7 +2128,7 @@
         <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2111,10 +2139,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2132,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2143,10 +2171,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2163,8 +2191,11 @@
       <c r="G41" t="s">
         <v>15</v>
       </c>
+      <c r="H41" t="s">
+        <v>90</v>
+      </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2175,10 +2206,10 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2196,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2207,10 +2238,10 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2228,7 +2259,7 @@
         <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2239,10 +2270,10 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2251,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F44" t="s">
         <v>25</v>
@@ -2260,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2271,10 +2302,10 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -2291,8 +2322,11 @@
       <c r="G45" t="s">
         <v>15</v>
       </c>
+      <c r="H45" t="s">
+        <v>90</v>
+      </c>
       <c r="J45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2303,10 +2337,10 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2324,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2335,10 +2369,10 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -2356,7 +2390,7 @@
         <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2367,6 +2401,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{016E05C3-64E9-4714-95B6-45EFDED3929A}">
+          <x14:formula1>
+            <xm:f>'Sheet 2'!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2374,13 +2420,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2388,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2396,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2404,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2420,7 +2468,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2428,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2436,7 +2484,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2444,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2453,8 +2501,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD6DE5DB5A34A749BF3DACFD3E2D6C60" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="168b8d325a13eff6fb375030edbea8e1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0f83324-e24c-4415-8ea4-7b3a4c207790" xmlns:ns3="9efc881c-c5bb-47d9-bf3a-c9d7f253646b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="818ea96dd1355113715be5cc0484ce34" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD6DE5DB5A34A749BF3DACFD3E2D6C60" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="745738122f243e8777abe46a53fd78c7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0f83324-e24c-4415-8ea4-7b3a4c207790" xmlns:ns3="9efc881c-c5bb-47d9-bf3a-c9d7f253646b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dbccdd7214daa34df71e55f0ce0a251" ns2:_="" ns3:_="">
     <xsd:import namespace="d0f83324-e24c-4415-8ea4-7b3a4c207790"/>
     <xsd:import namespace="9efc881c-c5bb-47d9-bf3a-c9d7f253646b"/>
     <xsd:element name="properties">
@@ -2467,6 +2515,10 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2485,6 +2537,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2633,7 +2707,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE4B1C43-CAF5-4026-A68F-A9C4C6282F2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2C5EFB-B5E5-4F32-AC61-EA56C7B73748}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
